--- a/SchedulingData/dynamic12/pso/scheduling2_5.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>222.86</v>
+        <v>232.14</v>
       </c>
       <c r="D2" t="n">
-        <v>274.4</v>
+        <v>272.64</v>
       </c>
       <c r="E2" t="n">
-        <v>14.74</v>
+        <v>14.416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>225.68</v>
+        <v>222.52</v>
       </c>
       <c r="D3" t="n">
-        <v>285.18</v>
+        <v>300.2</v>
       </c>
       <c r="E3" t="n">
-        <v>11.672</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>229.9</v>
+        <v>272.64</v>
       </c>
       <c r="D4" t="n">
-        <v>264.02</v>
+        <v>331.96</v>
       </c>
       <c r="E4" t="n">
-        <v>10.788</v>
+        <v>12.084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>269.88</v>
+        <v>300.2</v>
       </c>
       <c r="D5" t="n">
-        <v>311.9</v>
+        <v>333.1</v>
       </c>
       <c r="E5" t="n">
-        <v>12.08</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>311.9</v>
+        <v>225.42</v>
       </c>
       <c r="D6" t="n">
-        <v>385.34</v>
+        <v>277.34</v>
       </c>
       <c r="E6" t="n">
-        <v>8.856</v>
+        <v>12.436</v>
       </c>
     </row>
     <row r="7">
@@ -561,359 +561,397 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>250.3</v>
+        <v>221.9</v>
       </c>
       <c r="D7" t="n">
-        <v>330.1</v>
+        <v>264.7</v>
       </c>
       <c r="E7" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>264.02</v>
+        <v>264.7</v>
       </c>
       <c r="D8" t="n">
-        <v>313.18</v>
+        <v>296.7</v>
       </c>
       <c r="E8" t="n">
-        <v>7.512</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>274.4</v>
+        <v>296.7</v>
       </c>
       <c r="D9" t="n">
-        <v>334.9</v>
+        <v>348.96</v>
       </c>
       <c r="E9" t="n">
-        <v>11.82</v>
+        <v>7.544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>313.18</v>
+        <v>277.34</v>
       </c>
       <c r="D10" t="n">
-        <v>360.18</v>
+        <v>321.68</v>
       </c>
       <c r="E10" t="n">
-        <v>4.432</v>
+        <v>9.132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>385.34</v>
+        <v>348.96</v>
       </c>
       <c r="D11" t="n">
-        <v>439.76</v>
+        <v>392.56</v>
       </c>
       <c r="E11" t="n">
-        <v>6.524</v>
+        <v>3.824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>334.9</v>
+        <v>229.98</v>
       </c>
       <c r="D12" t="n">
-        <v>392.28</v>
+        <v>294.78</v>
       </c>
       <c r="E12" t="n">
-        <v>7.712</v>
+        <v>12.652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>330.1</v>
+        <v>331.96</v>
       </c>
       <c r="D13" t="n">
-        <v>382.82</v>
+        <v>399.06</v>
       </c>
       <c r="E13" t="n">
-        <v>9.448</v>
+        <v>8.964</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>382.82</v>
+        <v>399.06</v>
       </c>
       <c r="D14" t="n">
-        <v>434.26</v>
+        <v>435.88</v>
       </c>
       <c r="E14" t="n">
-        <v>6.424</v>
+        <v>6.412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>241.84</v>
+        <v>225.76</v>
       </c>
       <c r="D15" t="n">
-        <v>284</v>
+        <v>255.92</v>
       </c>
       <c r="E15" t="n">
-        <v>11.4</v>
+        <v>14.088</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>285.18</v>
+        <v>255.92</v>
       </c>
       <c r="D16" t="n">
-        <v>337.78</v>
+        <v>309.78</v>
       </c>
       <c r="E16" t="n">
-        <v>8.552</v>
+        <v>10.812</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>337.78</v>
+        <v>294.78</v>
       </c>
       <c r="D17" t="n">
-        <v>370.78</v>
+        <v>340.98</v>
       </c>
       <c r="E17" t="n">
-        <v>6.392</v>
+        <v>10.172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>284</v>
+        <v>309.78</v>
       </c>
       <c r="D18" t="n">
-        <v>344</v>
+        <v>372.28</v>
       </c>
       <c r="E18" t="n">
-        <v>8.98</v>
+        <v>7.692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>360.18</v>
+        <v>321.68</v>
       </c>
       <c r="D19" t="n">
-        <v>414.84</v>
+        <v>361.2</v>
       </c>
       <c r="E19" t="n">
-        <v>2.056</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>434.26</v>
+        <v>372.28</v>
       </c>
       <c r="D20" t="n">
-        <v>470.46</v>
+        <v>414.98</v>
       </c>
       <c r="E20" t="n">
-        <v>3.944</v>
+        <v>5.532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>370.78</v>
+        <v>340.98</v>
       </c>
       <c r="D21" t="n">
-        <v>432.48</v>
+        <v>389.62</v>
       </c>
       <c r="E21" t="n">
-        <v>3.312</v>
+        <v>6.948</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>392.28</v>
+        <v>333.1</v>
       </c>
       <c r="D22" t="n">
-        <v>449.78</v>
+        <v>403.92</v>
       </c>
       <c r="E22" t="n">
-        <v>5.552</v>
+        <v>7.008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>439.76</v>
+        <v>414.98</v>
       </c>
       <c r="D23" t="n">
-        <v>501.66</v>
+        <v>478.22</v>
       </c>
       <c r="E23" t="n">
-        <v>3.444</v>
+        <v>2.308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>449.78</v>
+        <v>361.2</v>
       </c>
       <c r="D24" t="n">
-        <v>504.2</v>
+        <v>403.3</v>
       </c>
       <c r="E24" t="n">
-        <v>3.22</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>pond62</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>389.62</v>
+      </c>
+      <c r="D25" t="n">
+        <v>471.52</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.868</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>6</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>pond59</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>344</v>
-      </c>
-      <c r="D25" t="n">
-        <v>418.9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.62</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>pond7</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>403.92</v>
+      </c>
+      <c r="D26" t="n">
+        <v>465.82</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.928</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>pond42</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>435.88</v>
+      </c>
+      <c r="D27" t="n">
+        <v>472.52</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.388</v>
       </c>
     </row>
   </sheetData>
